--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/mn/elec/arpuiirc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/nm/elec/arpuiirc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113BB3F-7BA7-1D44-937D-9F901678928C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37992B4E-6B51-274F-A12C-0376FDF6171C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="21080" windowHeight="12680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16655,7 +16655,7 @@
         <v>314</v>
       </c>
       <c r="B21">
-        <v>4020.2000000000003</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="B23" s="1">
         <f>B21/B22</f>
-        <v>1.719520029700879E-2</v>
+        <v>1.1291808562783744E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="B2" s="5">
         <f>Calculations!$B$17*Weighting!B104*Calculations!$B$23</f>
-        <v>68.780801188035156</v>
+        <v>45.167234251134971</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B3" s="5">
         <f>Calculations!$B$17*Weighting!B105*Calculations!$B$23</f>
-        <v>40.026170798108147</v>
+        <v>26.284535820856053</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="B4" s="5">
         <f>Calculations!$B$17*Weighting!B106*Calculations!$B$23</f>
-        <v>42.971435236952836</v>
+        <v>28.218643108689985</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -23354,7 +23354,7 @@
       </c>
       <c r="B5" s="5">
         <f>Calculations!$B$17*Weighting!B107*Calculations!$B$23</f>
-        <v>21.219697681588663</v>
+        <v>13.934630585392288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -23363,7 +23363,7 @@
       </c>
       <c r="B6" s="5">
         <f>Calculations!$B$17*Weighting!B108*Calculations!$B$23</f>
-        <v>14.86682644879104</v>
+        <v>9.7628032995394118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="B7" s="5">
         <f>Calculations!$B$17*Weighting!B109*Calculations!$B$23</f>
-        <v>13.920189011392262</v>
+        <v>9.141161880024768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -23381,7 +23381,7 @@
       </c>
       <c r="B8" s="5">
         <f>Calculations!$B$17*Weighting!B110*Calculations!$B$23</f>
-        <v>28.768714809231291</v>
+        <v>18.891947439523062</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="B9" s="5">
         <f>Calculations!$B$17*Weighting!B111*Calculations!$B$23</f>
-        <v>100.23630408312327</v>
+        <v>65.823551758481031</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="B10" s="5">
         <f>Calculations!$B$17*Weighting!B112*Calculations!$B$23</f>
-        <v>30.163905750851011</v>
+        <v>19.80814665495415</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -23424,7 +23424,7 @@
       </c>
       <c r="B13" s="5">
         <f>Calculations!$B$17*Weighting!B115*Calculations!$B$23</f>
-        <v>74.085457021517598</v>
+        <v>48.650715520821464</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="B14" s="5">
         <f>Calculations!$B$17*Weighting!B116*Calculations!$B$23</f>
-        <v>48.156125048518049</v>
+        <v>31.623344641581927</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="B17" s="5">
         <f>Calculations!$B$17*Weighting!B119*Calculations!$B$23</f>
-        <v>15.328617753428521</v>
+        <v>10.06605414383645</v>
       </c>
     </row>
   </sheetData>
